--- a/biology/Histoire de la zoologie et de la botanique/Jacques_Leplat_(entomologiste)/Jacques_Leplat_(entomologiste).xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jacques_Leplat_(entomologiste)/Jacques_Leplat_(entomologiste).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Jacques Leplat est un entomologiste français, né le 10 mai 1925 à Saint-Denis et décédé le 22 avril 2012 à Céret[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Jacques Leplat est un entomologiste français, né le 10 mai 1925 à Saint-Denis et décédé le 22 avril 2012 à Céret.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Sa vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études au Vésinet pour l'école primaire puis à Paris pour le lycée avec un passage en Corrèze pendant la guerre. Il a passé un baccalauréat scientifique (mathématiques élémentaires).
 Il a commencé des études à la Sorbonne en Sciences Naturelles sans finir. 
@@ -552,7 +566,9 @@
           <t>Ses travaux entomologiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'intéresse particulièrement aux Carabes dont il rassemble une collection importante et réalise de nombreux élevages, il obtient quantité d'hybrides. Ses collections et sa bibliothèque entomologiques sont vendus à l'hôtel Drouot le 5 octobre 2012.
 </t>
@@ -583,11 +599,13 @@
           <t>Livres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il publie, aux éditions Sciences Nat, avec son ami Jacques Forel, une monographie des Carabes de France[2] et une iconographie des Buprestes de France pour servir è l'ouvrage de L. Schaefer[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il publie, aux éditions Sciences Nat, avec son ami Jacques Forel, une monographie des Carabes de France et une iconographie des Buprestes de France pour servir è l'ouvrage de L. Schaefer.
 Il publie aux éditions Magellanes, toujours avec Jacques Forel, la faune des Carabus de la péninsule ibérique, puis avec Alain Camard, une étude sur les hybrides du genre Carabus. 
-Enfin il entreprend une refonte de l'ouvrage de Jeannel sur la faune des Carabiques de France et publie, avec Jacques Forel les volumes 1, 10 et 11 (sur onze prévus)[4].
+Enfin il entreprend une refonte de l'ouvrage de Jeannel sur la faune des Carabiques de France et publie, avec Jacques Forel les volumes 1, 10 et 11 (sur onze prévus).
 </t>
         </is>
       </c>
@@ -616,7 +634,9 @@
           <t>Taxa décrits</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Anthaxia hungarica linea cupreus Leplat, 2000
 Brachyleptura stragulata Leplat, 1986
@@ -654,7 +674,9 @@
           <t>Taxa dédiés</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Carabus leplati Deuve &amp; Li, 2008
 Ceroglossus magellanicus leplati Jiroux, 2006</t>
